--- a/Veri güncelle donustur/Termin bilgileri.xlsx
+++ b/Veri güncelle donustur/Termin bilgileri.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Veriler" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Veriler!$A$1:$F$87</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Veriler!$A$1:$L$87</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="46">
   <si>
     <t xml:space="preserve">İKN</t>
   </si>
@@ -43,6 +43,24 @@
     <t xml:space="preserve">Parti Tutarı</t>
   </si>
   <si>
+    <t xml:space="preserve">Ambar teslimi gerçekleşti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testler başladı</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test sonuçları geldi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muayene Ve Kabul Heyet Raporu imza aşamasında</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabul İşlemi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Açıklama</t>
+  </si>
+  <si>
     <t xml:space="preserve">2024/1000</t>
   </si>
   <si>
@@ -50,6 +68,15 @@
   </si>
   <si>
     <t xml:space="preserve">Stop Vana, Sayac Rakoru, Nipel ve Nipel Redüksiyon Temini İşi (2.ve 3.Kısım)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/998877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demir Metal Sanayi Limited Şirketi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stop Vana, Sayaç Rakoru, Nipel ve Nipel Redüksiyon Temini İşi (1. Kısım)</t>
   </si>
   <si>
     <t xml:space="preserve">2024/123</t>
@@ -61,22 +88,46 @@
     <t xml:space="preserve">Stop Vana, Sayac Rakoru, Nipel ve Nipel Redüksiyon Temini İşi (4. 5. ve 6.Kısım)</t>
   </si>
   <si>
-    <t xml:space="preserve">2024/998877</t>
+    <t xml:space="preserve">2025/556677</t>
   </si>
   <si>
-    <t xml:space="preserve">Demir Metal Sanayi Limited Şirketi</t>
+    <t xml:space="preserve">Kapak Döküm Sanayi Anonim Şirketi</t>
   </si>
   <si>
-    <t xml:space="preserve">Stop Vana, Sayaç Rakoru, Nipel ve Nipel Redüksiyon Temini İşi (1. Kısım)</t>
+    <t xml:space="preserve">Dökme Demir Muayene Bacası Temini</t>
   </si>
   <si>
-    <t xml:space="preserve">2025/1111111</t>
+    <t xml:space="preserve">2025/23456</t>
   </si>
   <si>
     <t xml:space="preserve">Ölçüm Sanayi ve Ticaret Anonim Şirketi</t>
   </si>
   <si>
-    <t xml:space="preserve">45.000 Adet DN20 mm Hız Esaslı R100 Soğuk Su Sayacı Temini İşi</t>
+    <t xml:space="preserve">50.000 Adet DN20mm R100 Soğuk Su Sayacı Temini İşi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/65656500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidrant Sanayi Ticaret Limited Şirketi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yangın Musluğu Temini İşi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/5500066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pirinç Kör Tapa Temini İşi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/999888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plastik San. Ltd. Şti.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polietilen Boru (PE100) Temini 1.Kısım (∅ 32)</t>
   </si>
   <si>
     <t xml:space="preserve">2025/11223344</t>
@@ -88,49 +139,16 @@
     <t xml:space="preserve">Kolay Tamir Parçası Temini</t>
   </si>
   <si>
-    <t xml:space="preserve">2025/23456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.000 Adet DN20mm R100 Soğuk Su Sayacı Temini İşi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/5500066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pirinç Kör Tapa Temini İşi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/556677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kapak Döküm Sanayi Anonim Şirketi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dökme Demir Muayene Bacası Temini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/65656500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hidrant Sanayi Ticaret Limited Şirketi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yangın Musluğu Temini İşi</t>
-  </si>
-  <si>
     <t xml:space="preserve">2025/886600</t>
   </si>
   <si>
     <t xml:space="preserve">Pirinç Bağlantı Parçası 3/4 Temini</t>
   </si>
   <si>
-    <t xml:space="preserve">2025/999888</t>
+    <t xml:space="preserve">2025/1111111</t>
   </si>
   <si>
-    <t xml:space="preserve">Plastik San. Ltd. Şti.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polietilen Boru (PE100) Temini 1.Kısım (∅ 32)</t>
+    <t xml:space="preserve">45.000 Adet DN20 mm Hız Esaslı R100 Soğuk Su Sayacı Temini İşi</t>
   </si>
   <si>
     <t xml:space="preserve">Boru Malzemeleri Ltd. Şti.</t>
@@ -140,6 +158,9 @@
   </si>
   <si>
     <t xml:space="preserve">3 (Tek)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evrak müdürde</t>
   </si>
 </sst>
 </file>
@@ -332,7 +353,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -349,7 +370,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -361,8 +382,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -375,6 +396,10 @@
     </xf>
     <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -681,27 +706,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1048576"/>
+  <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="L57" activeCellId="0" sqref="L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="58.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="102.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="42.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="67.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="27.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16383" min="10" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="12.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="12.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="28.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="12.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="12" style="1" width="16.84"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16378" min="15" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16379" style="0" width="12.67"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -723,17 +751,52 @@
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="7"/>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="XEY1" s="0"/>
+      <c r="XEZ1" s="0"/>
+      <c r="XFA1" s="0"/>
+      <c r="XFB1" s="0"/>
+      <c r="XFC1" s="0"/>
+      <c r="XFD1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>1</v>
@@ -744,156 +807,276 @@
       <c r="F2" s="10" t="n">
         <v>7509500</v>
       </c>
+      <c r="G2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
+      <c r="A3" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" s="9" t="n">
-        <v>45732</v>
+        <v>16</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="15" t="n">
+        <v>45703</v>
       </c>
       <c r="F3" s="10" t="n">
-        <v>7509500</v>
+        <v>4068750</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" s="9" t="n">
-        <v>45762</v>
+        <v>45706</v>
       </c>
       <c r="F4" s="10" t="n">
-        <v>7509500</v>
+        <v>1420000</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5" s="9" t="n">
-        <v>45792</v>
+        <v>45732</v>
       </c>
       <c r="F5" s="10" t="n">
-        <v>5997000</v>
+        <v>7509500</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
+      <c r="A6" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" s="9" t="n">
-        <v>45822</v>
+        <v>16</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="15" t="n">
+        <v>45733</v>
       </c>
       <c r="F6" s="10" t="n">
-        <v>8097000</v>
+        <v>4068750</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E7" s="9" t="n">
-        <v>45852</v>
+        <v>45736</v>
       </c>
       <c r="F7" s="10" t="n">
-        <v>2100000</v>
+        <v>1307500</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" s="9" t="n">
-        <v>45706</v>
+        <v>45762</v>
       </c>
       <c r="F8" s="10" t="n">
-        <v>1420000</v>
+        <v>7509500</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" s="9" t="n">
-        <v>45736</v>
+      <c r="A9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" s="15" t="n">
+        <v>45763</v>
       </c>
       <c r="F9" s="10" t="n">
-        <v>1307500</v>
+        <v>4068750</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D10" s="3" t="n">
         <v>3</v>
@@ -904,1545 +1087,2366 @@
       <c r="F10" s="10" t="n">
         <v>2097500</v>
       </c>
+      <c r="G10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D11" s="3" t="n">
         <v>4</v>
       </c>
       <c r="E11" s="9" t="n">
-        <v>45796</v>
+        <v>45792</v>
       </c>
       <c r="F11" s="10" t="n">
-        <v>813750</v>
+        <v>5997000</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="E12" s="9" t="n">
-        <v>45826</v>
+      <c r="A12" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="15" t="n">
+        <v>45792</v>
       </c>
       <c r="F12" s="10" t="n">
-        <v>813750</v>
+        <v>2270625</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
-        <v>12</v>
+      <c r="A13" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="14" t="n">
-        <v>45703</v>
+        <v>16</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" s="15" t="n">
+        <v>45793</v>
       </c>
       <c r="F13" s="10" t="n">
         <v>4068750</v>
       </c>
+      <c r="G13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" s="14" t="n">
-        <v>45733</v>
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" s="9" t="n">
+        <v>45796</v>
       </c>
       <c r="F14" s="10" t="n">
-        <v>4068750</v>
+        <v>813750</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="E15" s="14" t="n">
-        <v>45763</v>
+      <c r="D15" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" s="9" t="n">
+        <v>45822</v>
       </c>
       <c r="F15" s="10" t="n">
+        <v>8097000</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9" t="n">
+        <v>45822</v>
+      </c>
+      <c r="F16" s="10" t="n">
+        <v>2192000</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" s="15" t="n">
+        <v>45822</v>
+      </c>
+      <c r="F17" s="10" t="n">
+        <v>2270625</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" s="15" t="n">
+        <v>45823</v>
+      </c>
+      <c r="F18" s="10" t="n">
         <v>4068750</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="E16" s="14" t="n">
-        <v>45793</v>
-      </c>
-      <c r="F16" s="10" t="n">
-        <v>4068750</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="13" t="n">
+      <c r="G18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="E17" s="14" t="n">
-        <v>45823</v>
-      </c>
-      <c r="F17" s="10" t="n">
-        <v>4068750</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="E18" s="14" t="n">
-        <v>45853</v>
-      </c>
-      <c r="F18" s="10" t="n">
-        <v>5425000</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="E19" s="14" t="n">
-        <v>45883</v>
+      <c r="E19" s="9" t="n">
+        <v>45826</v>
       </c>
       <c r="F19" s="10" t="n">
-        <v>5425000</v>
+        <v>813750</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="13" t="n">
-        <v>8</v>
-      </c>
-      <c r="E20" s="14" t="n">
-        <v>45913</v>
+      <c r="D20" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E20" s="9" t="n">
+        <v>45852</v>
       </c>
       <c r="F20" s="10" t="n">
-        <v>5425000</v>
+        <v>2100000</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="9" t="n">
-        <v>45987</v>
+        <v>45852</v>
       </c>
       <c r="F21" s="10" t="n">
-        <v>616000</v>
+        <v>2192000</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>15</v>
+      <c r="A22" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" s="9" t="n">
-        <v>46017</v>
+        <v>22</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" s="15" t="n">
+        <v>45852</v>
       </c>
       <c r="F22" s="10" t="n">
-        <v>616000</v>
+        <v>2270625</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E23" s="9" t="n">
-        <v>46047</v>
+      <c r="D23" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="E23" s="15" t="n">
+        <v>45853</v>
       </c>
       <c r="F23" s="10" t="n">
-        <v>2156000</v>
+        <v>5425000</v>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>16</v>
+        <v>27</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E24" s="9" t="n">
-        <v>46077</v>
+        <v>45857</v>
       </c>
       <c r="F24" s="10" t="n">
-        <v>2156000</v>
+        <v>2215000</v>
+      </c>
+      <c r="G24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E25" s="9" t="n">
-        <v>46107</v>
+        <v>45882</v>
       </c>
       <c r="F25" s="10" t="n">
-        <v>2156000</v>
+        <v>2192000</v>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>15</v>
+      <c r="A26" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="E26" s="9" t="n">
-        <v>46137</v>
+        <v>22</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E26" s="15" t="n">
+        <v>45882</v>
       </c>
       <c r="F26" s="10" t="n">
-        <v>2156000</v>
+        <v>2270625</v>
+      </c>
+      <c r="G26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="3" t="n">
+      <c r="D27" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="E27" s="9" t="n">
-        <v>46167</v>
+      <c r="E27" s="15" t="n">
+        <v>45883</v>
       </c>
       <c r="F27" s="10" t="n">
-        <v>2464000</v>
+        <v>5425000</v>
+      </c>
+      <c r="G27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E28" s="9" t="n">
-        <v>46197</v>
+        <v>45884</v>
       </c>
       <c r="F28" s="10" t="n">
-        <v>3080000</v>
+        <v>756250</v>
+      </c>
+      <c r="G28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>16</v>
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E29" s="9" t="n">
-        <v>46227</v>
+        <v>45887</v>
       </c>
       <c r="F29" s="10" t="n">
-        <v>3080000</v>
+        <v>2215000</v>
+      </c>
+      <c r="G29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E30" s="9" t="n">
-        <v>46257</v>
+        <v>45912</v>
       </c>
       <c r="F30" s="10" t="n">
-        <v>3080000</v>
+        <v>2192000</v>
+      </c>
+      <c r="G30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>15</v>
+      <c r="A31" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="E31" s="9" t="n">
-        <v>46287</v>
+        <v>22</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E31" s="15" t="n">
+        <v>45912</v>
       </c>
       <c r="F31" s="10" t="n">
-        <v>3080000</v>
+        <v>2270625</v>
+      </c>
+      <c r="G31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="E32" s="9" t="n">
-        <v>46317</v>
+      <c r="D32" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="E32" s="15" t="n">
+        <v>45913</v>
       </c>
       <c r="F32" s="10" t="n">
-        <v>3080000</v>
+        <v>5425000</v>
+      </c>
+      <c r="G32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="15" t="s">
-        <v>18</v>
+      <c r="A33" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" s="14" t="n">
-        <v>45956</v>
+        <v>16</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E33" s="9" t="n">
+        <v>45914</v>
       </c>
       <c r="F33" s="10" t="n">
-        <v>525000</v>
+        <v>418750</v>
+      </c>
+      <c r="G33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="E34" s="14" t="n">
-        <v>45986</v>
+      <c r="A34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E34" s="9" t="n">
+        <v>45917</v>
       </c>
       <c r="F34" s="10" t="n">
-        <v>525000</v>
+        <v>2215000</v>
+      </c>
+      <c r="G34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="15" t="s">
-        <v>18</v>
+      <c r="A35" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="E35" s="14" t="n">
-        <v>46016</v>
+        <v>33</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="15" t="n">
+        <v>45934</v>
       </c>
       <c r="F35" s="10" t="n">
-        <v>632500</v>
+        <v>407250</v>
+      </c>
+      <c r="G35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="15" t="s">
-        <v>18</v>
+      <c r="A36" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="E36" s="14" t="n">
-        <v>46046</v>
+        <v>25</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E36" s="9" t="n">
+        <v>45942</v>
       </c>
       <c r="F36" s="10" t="n">
-        <v>780000</v>
+        <v>2192000</v>
+      </c>
+      <c r="G36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="15" t="s">
-        <v>18</v>
+      <c r="A37" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="E37" s="14" t="n">
-        <v>46076</v>
+        <v>22</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="E37" s="15" t="n">
+        <v>45942</v>
       </c>
       <c r="F37" s="10" t="n">
-        <v>375000</v>
+        <v>2270625</v>
+      </c>
+      <c r="G37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E38" s="9" t="n">
-        <v>45822</v>
+        <v>45944</v>
       </c>
       <c r="F38" s="10" t="n">
-        <v>2192000</v>
+        <v>418750</v>
+      </c>
+      <c r="G38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>16</v>
+        <v>27</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D39" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E39" s="9" t="n">
+        <v>45947</v>
+      </c>
+      <c r="F39" s="10" t="n">
+        <v>2215000</v>
+      </c>
+      <c r="G39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="15" t="n">
+        <v>45956</v>
+      </c>
+      <c r="F40" s="10" t="n">
+        <v>525000</v>
+      </c>
+      <c r="G40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="E39" s="9" t="n">
-        <v>45852</v>
-      </c>
-      <c r="F39" s="10" t="n">
-        <v>2192000</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E40" s="9" t="n">
-        <v>45882</v>
-      </c>
-      <c r="F40" s="10" t="n">
-        <v>2192000</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D41" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E41" s="9" t="n">
-        <v>45912</v>
+      <c r="E41" s="15" t="n">
+        <v>45964</v>
       </c>
       <c r="F41" s="10" t="n">
-        <v>2192000</v>
+        <v>407250</v>
+      </c>
+      <c r="G41" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E42" s="9" t="n">
-        <v>45942</v>
+        <v>45972</v>
       </c>
       <c r="F42" s="10" t="n">
         <v>2192000</v>
       </c>
+      <c r="G42" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" s="3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="16" t="s">
         <v>21</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="E43" s="9" t="n">
+      <c r="C43" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="E43" s="15" t="n">
         <v>45972</v>
       </c>
       <c r="F43" s="10" t="n">
-        <v>2192000</v>
+        <v>2270625</v>
+      </c>
+      <c r="G43" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>21</v>
+      <c r="A44" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D44" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="E44" s="9" t="n">
-        <v>46002</v>
+      <c r="C44" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" s="15" t="n">
+        <v>45973</v>
       </c>
       <c r="F44" s="10" t="n">
-        <v>2192000</v>
+        <v>774375</v>
+      </c>
+      <c r="G44" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E45" s="9" t="n">
-        <v>46032</v>
+        <v>45974</v>
       </c>
       <c r="F45" s="10" t="n">
-        <v>2192000</v>
+        <v>418750</v>
+      </c>
+      <c r="G45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>16</v>
+        <v>27</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E46" s="9" t="n">
-        <v>46062</v>
+        <v>45977</v>
       </c>
       <c r="F46" s="10" t="n">
-        <v>2192000</v>
+        <v>2215000</v>
+      </c>
+      <c r="G46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>21</v>
+      <c r="A47" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D47" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="E47" s="9" t="n">
-        <v>46092</v>
+        <v>36</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E47" s="15" t="n">
+        <v>45986</v>
       </c>
       <c r="F47" s="10" t="n">
-        <v>2192000</v>
+        <v>525000</v>
+      </c>
+      <c r="G47" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E48" s="9" t="n">
-        <v>46122</v>
+        <v>45987</v>
       </c>
       <c r="F48" s="10" t="n">
-        <v>2740000</v>
+        <v>616000</v>
+      </c>
+      <c r="G48" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>21</v>
+      <c r="A49" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D49" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="E49" s="9" t="n">
-        <v>46152</v>
+        <v>42</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" s="15" t="n">
+        <v>45994</v>
       </c>
       <c r="F49" s="10" t="n">
-        <v>2740000</v>
+        <v>633750</v>
+      </c>
+      <c r="G49" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E50" s="9" t="n">
+        <v>46002</v>
+      </c>
+      <c r="F50" s="10" t="n">
+        <v>2192000</v>
+      </c>
+      <c r="G50" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D50" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" s="9" t="n">
-        <v>45884</v>
-      </c>
-      <c r="F50" s="10" t="n">
-        <v>756250</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D51" s="3" t="n">
+      <c r="D51" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="E51" s="15" t="n">
+        <v>46002</v>
+      </c>
+      <c r="F51" s="10" t="n">
+        <v>2270625</v>
+      </c>
+      <c r="G51" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="E51" s="9" t="n">
-        <v>45914</v>
-      </c>
-      <c r="F51" s="10" t="n">
-        <v>418750</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D52" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E52" s="9" t="n">
-        <v>45944</v>
+      <c r="E52" s="15" t="n">
+        <v>46003</v>
       </c>
       <c r="F52" s="10" t="n">
-        <v>418750</v>
+        <v>774375</v>
+      </c>
+      <c r="G52" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E53" s="9" t="n">
-        <v>45974</v>
+        <v>46004</v>
       </c>
       <c r="F53" s="10" t="n">
-        <v>418750</v>
+        <v>206250</v>
+      </c>
+      <c r="G53" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
-        <v>23</v>
+      <c r="A54" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D54" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="E54" s="9" t="n">
-        <v>46004</v>
+        <v>36</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E54" s="15" t="n">
+        <v>46016</v>
       </c>
       <c r="F54" s="10" t="n">
-        <v>206250</v>
+        <v>632500</v>
+      </c>
+      <c r="G54" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K54" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E55" s="9" t="n">
-        <v>46034</v>
+        <v>46017</v>
       </c>
       <c r="F55" s="10" t="n">
-        <v>206250</v>
+        <v>616000</v>
+      </c>
+      <c r="G55" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K55" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
-        <v>23</v>
+      <c r="A56" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D56" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="E56" s="9" t="n">
-        <v>46064</v>
+        <v>33</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E56" s="15" t="n">
+        <v>46024</v>
       </c>
       <c r="F56" s="10" t="n">
-        <v>206250</v>
+        <v>407250</v>
+      </c>
+      <c r="G56" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K56" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D57" s="3" t="n">
         <v>8</v>
       </c>
       <c r="E57" s="9" t="n">
-        <v>46094</v>
+        <v>46032</v>
       </c>
       <c r="F57" s="10" t="n">
-        <v>206250</v>
+        <v>2192000</v>
+      </c>
+      <c r="G57" s="3"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="15" t="s">
-        <v>25</v>
+      <c r="A58" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D58" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E58" s="14" t="n">
-        <v>45792</v>
+        <v>22</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="14" t="n">
+        <v>9</v>
+      </c>
+      <c r="E58" s="15" t="n">
+        <v>46032</v>
       </c>
       <c r="F58" s="10" t="n">
         <v>2270625</v>
       </c>
+      <c r="G58" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" s="11"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E59" s="15" t="n">
+        <v>46033</v>
+      </c>
+      <c r="F59" s="10" t="n">
+        <v>774375</v>
+      </c>
+      <c r="G59" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D60" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E60" s="9" t="n">
+        <v>46034</v>
+      </c>
+      <c r="F60" s="10" t="n">
+        <v>206250</v>
+      </c>
+      <c r="K60" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D61" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E61" s="15" t="n">
+        <v>46046</v>
+      </c>
+      <c r="F61" s="10" t="n">
+        <v>780000</v>
+      </c>
+      <c r="K61" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B62" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="C62" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D62" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E62" s="9" t="n">
+        <v>46047</v>
+      </c>
+      <c r="F62" s="10" t="n">
+        <v>2156000</v>
+      </c>
+      <c r="K62" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D63" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E63" s="15" t="n">
+        <v>46054</v>
+      </c>
+      <c r="F63" s="10" t="n">
+        <v>407250</v>
+      </c>
+      <c r="K63" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C59" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D59" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="E59" s="14" t="n">
-        <v>45822</v>
-      </c>
-      <c r="F59" s="10" t="n">
-        <v>2270625</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D60" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="E60" s="14" t="n">
-        <v>45852</v>
-      </c>
-      <c r="F60" s="10" t="n">
-        <v>2270625</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D61" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="E61" s="14" t="n">
-        <v>45882</v>
-      </c>
-      <c r="F61" s="10" t="n">
-        <v>2270625</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D62" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="E62" s="14" t="n">
-        <v>45912</v>
-      </c>
-      <c r="F62" s="10" t="n">
-        <v>2270625</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D63" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="E63" s="14" t="n">
-        <v>45942</v>
-      </c>
-      <c r="F63" s="10" t="n">
-        <v>2270625</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D64" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="E64" s="14" t="n">
-        <v>45972</v>
+      <c r="D64" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="E64" s="9" t="n">
+        <v>46062</v>
       </c>
       <c r="F64" s="10" t="n">
-        <v>2270625</v>
+        <v>2192000</v>
+      </c>
+      <c r="K64" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="15" t="s">
-        <v>25</v>
+      <c r="A65" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D65" s="13" t="n">
-        <v>8</v>
-      </c>
-      <c r="E65" s="14" t="n">
-        <v>46002</v>
+        <v>22</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="E65" s="15" t="n">
+        <v>46062</v>
       </c>
       <c r="F65" s="10" t="n">
         <v>2270625</v>
       </c>
+      <c r="K65" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="15" t="s">
-        <v>25</v>
+      <c r="A66" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D66" s="13" t="n">
-        <v>9</v>
-      </c>
-      <c r="E66" s="14" t="n">
-        <v>46032</v>
+        <v>16</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D66" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E66" s="15" t="n">
+        <v>46063</v>
       </c>
       <c r="F66" s="10" t="n">
-        <v>2270625</v>
+        <v>2323125</v>
+      </c>
+      <c r="K66" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="15" t="s">
-        <v>25</v>
+      <c r="A67" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D67" s="13" t="n">
-        <v>10</v>
-      </c>
-      <c r="E67" s="14" t="n">
-        <v>46062</v>
+        <v>16</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D67" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E67" s="9" t="n">
+        <v>46064</v>
       </c>
       <c r="F67" s="10" t="n">
-        <v>2270625</v>
+        <v>206250</v>
+      </c>
+      <c r="K67" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D68" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E68" s="9" t="n">
-        <v>45857</v>
+      <c r="A68" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D68" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E68" s="15" t="n">
+        <v>46076</v>
       </c>
       <c r="F68" s="10" t="n">
-        <v>2215000</v>
+        <v>375000</v>
+      </c>
+      <c r="K68" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E69" s="9" t="n">
-        <v>45887</v>
+        <v>46077</v>
       </c>
       <c r="F69" s="10" t="n">
-        <v>2215000</v>
+        <v>2156000</v>
+      </c>
+      <c r="K69" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D70" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E70" s="9" t="n">
-        <v>45917</v>
+      <c r="A70" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D70" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="E70" s="15" t="n">
+        <v>46084</v>
       </c>
       <c r="F70" s="10" t="n">
-        <v>2215000</v>
+        <v>407250</v>
+      </c>
+      <c r="K70" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D71" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E71" s="9" t="n">
+        <v>46092</v>
+      </c>
+      <c r="F71" s="10" t="n">
+        <v>2192000</v>
+      </c>
+      <c r="K71" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D72" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E72" s="15" t="n">
+        <v>46093</v>
+      </c>
+      <c r="F72" s="10" t="n">
+        <v>2323125</v>
+      </c>
+      <c r="K72" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D71" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E71" s="9" t="n">
-        <v>45947</v>
-      </c>
-      <c r="F71" s="10" t="n">
-        <v>2215000</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D72" s="3" t="n">
+      <c r="B73" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D73" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E73" s="9" t="n">
+        <v>46094</v>
+      </c>
+      <c r="F73" s="10" t="n">
+        <v>206250</v>
+      </c>
+      <c r="K73" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D74" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="E72" s="9" t="n">
-        <v>45977</v>
-      </c>
-      <c r="F72" s="10" t="n">
-        <v>2215000</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C73" s="15" t="s">
+      <c r="E74" s="9" t="n">
+        <v>46107</v>
+      </c>
+      <c r="F74" s="10" t="n">
+        <v>2156000</v>
+      </c>
+      <c r="K74" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D73" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E73" s="14" t="n">
-        <v>45973</v>
-      </c>
-      <c r="F73" s="10" t="n">
-        <v>774375</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D74" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="E74" s="14" t="n">
-        <v>46003</v>
-      </c>
-      <c r="F74" s="10" t="n">
-        <v>774375</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="15" t="s">
-        <v>31</v>
-      </c>
       <c r="B75" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C75" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D75" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="E75" s="14" t="n">
-        <v>46033</v>
+        <v>33</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D75" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="E75" s="15" t="n">
+        <v>46114</v>
       </c>
       <c r="F75" s="10" t="n">
-        <v>774375</v>
+        <v>407250</v>
+      </c>
+      <c r="K75" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="15" t="s">
-        <v>31</v>
+      <c r="A76" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D76" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="E76" s="14" t="n">
-        <v>46063</v>
+        <v>25</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D76" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="E76" s="9" t="n">
+        <v>46122</v>
       </c>
       <c r="F76" s="10" t="n">
-        <v>2323125</v>
+        <v>2740000</v>
+      </c>
+      <c r="K76" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="15" t="s">
-        <v>31</v>
+      <c r="A77" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D77" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="E77" s="14" t="n">
-        <v>46093</v>
+        <v>16</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D77" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="E77" s="15" t="n">
+        <v>46123</v>
       </c>
       <c r="F77" s="10" t="n">
         <v>2323125</v>
       </c>
+      <c r="K77" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="15" t="s">
-        <v>31</v>
+      <c r="A78" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D78" s="13" t="n">
+        <v>25</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D78" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="E78" s="14" t="n">
-        <v>46123</v>
+      <c r="E78" s="9" t="n">
+        <v>46137</v>
       </c>
       <c r="F78" s="10" t="n">
-        <v>2323125</v>
+        <v>2156000</v>
+      </c>
+      <c r="K78" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="15" t="s">
-        <v>31</v>
+      <c r="A79" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D79" s="13" t="n">
+        <v>25</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D79" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="E79" s="9" t="n">
+        <v>46152</v>
+      </c>
+      <c r="F79" s="10" t="n">
+        <v>2740000</v>
+      </c>
+      <c r="K79" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D80" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="E79" s="14" t="n">
+      <c r="E80" s="15" t="n">
         <v>46153</v>
-      </c>
-      <c r="F79" s="10" t="n">
-        <v>3097500</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D80" s="13" t="n">
-        <v>8</v>
-      </c>
-      <c r="E80" s="14" t="n">
-        <v>46183</v>
       </c>
       <c r="F80" s="10" t="n">
         <v>3097500</v>
       </c>
+      <c r="K80" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="15" t="s">
-        <v>33</v>
+      <c r="A81" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D81" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E81" s="14" t="n">
-        <v>45934</v>
+        <v>25</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D81" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E81" s="9" t="n">
+        <v>46167</v>
       </c>
       <c r="F81" s="10" t="n">
-        <v>407250</v>
+        <v>2464000</v>
+      </c>
+      <c r="K81" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="15" t="s">
-        <v>33</v>
+      <c r="A82" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D82" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="E82" s="14" t="n">
-        <v>45964</v>
+        <v>16</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D82" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="E82" s="15" t="n">
+        <v>46183</v>
       </c>
       <c r="F82" s="10" t="n">
-        <v>407250</v>
+        <v>3097500</v>
+      </c>
+      <c r="K82" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="15" t="s">
-        <v>33</v>
+      <c r="A83" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D83" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="E83" s="14" t="n">
-        <v>46024</v>
+        <v>25</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D83" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E83" s="9" t="n">
+        <v>46197</v>
       </c>
       <c r="F83" s="10" t="n">
-        <v>407250</v>
+        <v>3080000</v>
+      </c>
+      <c r="K83" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="15" t="s">
-        <v>33</v>
+      <c r="A84" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D84" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="E84" s="14" t="n">
-        <v>46054</v>
+        <v>25</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D84" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="E84" s="9" t="n">
+        <v>46227</v>
       </c>
       <c r="F84" s="10" t="n">
-        <v>407250</v>
+        <v>3080000</v>
+      </c>
+      <c r="K84" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="15" t="s">
-        <v>33</v>
+      <c r="A85" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D85" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="E85" s="14" t="n">
-        <v>46084</v>
+        <v>25</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D85" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E85" s="9" t="n">
+        <v>46257</v>
       </c>
       <c r="F85" s="10" t="n">
-        <v>407250</v>
+        <v>3080000</v>
+      </c>
+      <c r="K85" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="15" t="s">
-        <v>33</v>
+      <c r="A86" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C86" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D86" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="E86" s="14" t="n">
-        <v>46114</v>
+        <v>25</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D86" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="E86" s="9" t="n">
+        <v>46287</v>
       </c>
       <c r="F86" s="10" t="n">
-        <v>407250</v>
+        <v>3080000</v>
+      </c>
+      <c r="K86" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="15" t="s">
-        <v>33</v>
+      <c r="A87" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C87" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D87" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E87" s="14" t="n">
-        <v>45994</v>
+        <v>25</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D87" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="E87" s="9" t="n">
+        <v>46317</v>
       </c>
       <c r="F87" s="10" t="n">
-        <v>633750</v>
+        <v>3080000</v>
+      </c>
+      <c r="K87" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3612,7 +4616,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:F87"/>
+  <autoFilter ref="A1:L87"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
